--- a/StructureDefinition-profile-EventDefinition.xlsx
+++ b/StructureDefinition-profile-EventDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="326">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6867546-06:00</t>
+    <t>2026-02-09T22:05:43.1100279-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -419,38 +419,87 @@
     <t>EventDefinition.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>EventDefinition.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition.versionAlgorithm|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EventDefinition.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Element `EventDefinition.versionAlgorithm[x]` is will have a context of EventDefinition based on following the parent source element upwards and mapping to `EventDefinition`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>EventDefinition.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition.copyrightLabel|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for EventDefinition.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Element `EventDefinition.copyrightLabel` is will have a context of EventDefinition based on following the parent source element upwards and mapping to `EventDefinition`.</t>
+  </si>
+  <si>
+    <t>EventDefinition.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>EventDefinition.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -1285,7 +1334,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN38"/>
+  <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1294,9 +1343,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.5234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="28.5234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1304,7 +1353,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="20.23828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.89453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2260,7 +2309,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2279,17 +2328,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2326,16 +2373,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>136</v>
@@ -2362,7 +2407,7 @@
         <v>77</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -2370,43 +2415,43 @@
         <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2454,7 +2499,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2463,7 +2508,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>137</v>
@@ -2478,17 +2523,19 @@
         <v>77</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2506,23 +2553,21 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2570,25 +2615,25 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
@@ -2599,14 +2644,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2619,25 +2664,25 @@
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -2686,7 +2731,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2698,19 +2743,19 @@
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
@@ -2741,18 +2786,20 @@
         <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2843,7 +2890,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -2855,19 +2902,19 @@
         <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -2922,22 +2969,22 @@
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -2945,10 +2992,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2971,16 +3018,16 @@
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3030,7 +3077,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3045,10 +3092,10 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3059,10 +3106,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3082,19 +3129,23 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3142,7 +3193,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3151,7 +3202,7 @@
         <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>98</v>
@@ -3171,10 +3222,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3182,7 +3233,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
@@ -3191,22 +3242,22 @@
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3232,13 +3283,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -3256,10 +3307,10 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>86</v>
@@ -3271,10 +3322,10 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3285,10 +3336,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3308,23 +3359,19 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3372,7 +3419,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3387,10 +3434,10 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3401,10 +3448,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3412,7 +3459,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>86</v>
@@ -3421,55 +3468,55 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q19" t="s" s="2">
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="R19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="Y19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3486,10 +3533,10 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>86</v>
@@ -3501,10 +3548,10 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3515,14 +3562,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3541,18 +3588,20 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3600,7 +3649,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3615,10 +3664,10 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -3629,10 +3678,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3652,53 +3701,51 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="R21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="O21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="P21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -3716,7 +3763,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3731,10 +3778,10 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -3752,14 +3799,14 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -3771,16 +3818,16 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3836,7 +3883,7 @@
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
@@ -3845,10 +3892,10 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3859,10 +3906,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3882,21 +3929,23 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -3944,7 +3993,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3959,10 +4008,10 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -3973,10 +4022,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3999,20 +4048,18 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4060,7 +4107,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4075,7 +4122,7 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4089,10 +4136,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4103,7 +4150,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4112,19 +4159,19 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4150,13 +4197,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4174,13 +4221,13 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
@@ -4217,7 +4264,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4226,21 +4273,23 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4294,7 +4343,7 @@
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -4303,13 +4352,13 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4317,10 +4366,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4331,7 +4380,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4340,18 +4389,20 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>159</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4376,13 +4427,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4400,13 +4451,13 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
@@ -4415,7 +4466,7 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -4429,14 +4480,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4455,18 +4506,18 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4514,7 +4565,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4529,13 +4580,13 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4543,10 +4594,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4566,20 +4617,18 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>262</v>
+        <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4628,7 +4677,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4643,13 +4692,13 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4657,14 +4706,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4680,22 +4729,20 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4744,7 +4791,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4759,13 +4806,13 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -4773,10 +4820,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4799,20 +4846,18 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -4860,7 +4905,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4875,13 +4920,13 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -4889,10 +4934,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4903,7 +4948,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -4912,20 +4957,22 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -4950,13 +4997,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -4974,13 +5021,13 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
@@ -4989,13 +5036,13 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5003,10 +5050,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5017,7 +5064,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5026,19 +5073,23 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>220</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5086,13 +5137,13 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -5101,24 +5152,24 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5141,16 +5192,18 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5174,13 +5227,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5198,7 +5251,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5227,10 +5280,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5253,13 +5306,13 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5310,7 +5363,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5334,15 +5387,15 @@
         <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5365,13 +5418,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5422,7 +5475,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5446,15 +5499,15 @@
         <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5477,20 +5530,16 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>302</v>
+        <v>235</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5538,7 +5587,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5562,15 +5611,15 @@
         <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5578,7 +5627,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>79</v>
@@ -5590,16 +5639,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5650,10 +5699,10 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -5674,6 +5723,234 @@
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="P39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-EventDefinition.xlsx
+++ b/StructureDefinition-profile-EventDefinition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.1100279-06:00</t>
+    <t>2026-02-17T14:42:26.803491-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -459,7 +459,7 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `EventDefinition.versionAlgorithm[x]` is will have a context of EventDefinition based on following the parent source element upwards and mapping to `EventDefinition`.</t>
+    <t>Element `EventDefinition.versionAlgorithm[x]` has a context of EventDefinition based on following the parent source element upwards and mapping to `EventDefinition`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -482,7 +482,7 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `EventDefinition.copyrightLabel` is will have a context of EventDefinition based on following the parent source element upwards and mapping to `EventDefinition`.</t>
+    <t>Element `EventDefinition.copyrightLabel` has a context of EventDefinition based on following the parent source element upwards and mapping to `EventDefinition`.</t>
   </si>
   <si>
     <t>EventDefinition.modifierExtension</t>

--- a/StructureDefinition-profile-EventDefinition.xlsx
+++ b/StructureDefinition-profile-EventDefinition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.803491-06:00</t>
+    <t>2026-02-20T11:59:20.8034806-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/EventDefinition|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/EventDefinition</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,7 +449,7 @@
     <t>versionAlgorithm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition.versionAlgorithm|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition.versionAlgorithm}
 </t>
   </si>
   <si>
@@ -472,7 +472,7 @@
     <t>copyrightLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition.copyrightLabel|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition.copyrightLabel}
 </t>
   </si>
   <si>
@@ -1353,7 +1353,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.89453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.48046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-EventDefinition.xlsx
+++ b/StructureDefinition-profile-EventDefinition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8034806-06:00</t>
+    <t>2026-02-21T13:36:54.2185768-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/EventDefinition</t>
+    <t>http://hl7.org/fhir/StructureDefinition/EventDefinition|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,7 +449,7 @@
     <t>versionAlgorithm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition.versionAlgorithm}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition.versionAlgorithm|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -472,7 +472,7 @@
     <t>copyrightLabel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition.copyrightLabel}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-EventDefinition.copyrightLabel|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -1353,7 +1353,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.48046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.89453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
